--- a/data-start.xlsx
+++ b/data-start.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\iofm-new-excel-stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DBD121-9612-48AB-A9CA-8DCCC110AE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8737D1A-8531-4B2E-906D-1FECA1E560B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="16826" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InvoiceRegister" sheetId="1" r:id="rId1"/>
     <sheet name="OpenInvoices" sheetId="5" r:id="rId2"/>
-    <sheet name="Logs" sheetId="4" r:id="rId3"/>
+    <sheet name="APMonthly" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -364,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -373,39 +373,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <top style="thin">
           <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -413,13 +390,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -453,16 +423,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -495,16 +465,45 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -521,7 +520,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099F961D-5FC5-457D-84DE-5929A99EA541}" name="InvoiceRegister" displayName="InvoiceRegister" ref="A1:I9" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{099F961D-5FC5-457D-84DE-5929A99EA541}" name="InvoiceRegister" displayName="InvoiceRegister" ref="A1:I9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:I9" xr:uid="{099F961D-5FC5-457D-84DE-5929A99EA541}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{64588E9D-8CBD-4D27-9AEA-49A3298DE8B6}" name="Vendor Name"/>
@@ -539,7 +538,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{326B7E05-C8FA-46CA-A0C5-B43AD56B27AC}" name="OpenInvoices" displayName="OpenInvoices" ref="A1:G11" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{326B7E05-C8FA-46CA-A0C5-B43AD56B27AC}" name="OpenInvoices" displayName="OpenInvoices" ref="A1:G11" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:G11" xr:uid="{326B7E05-C8FA-46CA-A0C5-B43AD56B27AC}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{FDD3E1BF-3E10-42AE-8F5F-EF4BFFAB61E0}" name="Vendor"/>
@@ -555,7 +554,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{286A80E8-B09E-4703-8625-45D3B18A19DA}" name="APSummary" displayName="APSummary" ref="A1:F25" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{286A80E8-B09E-4703-8625-45D3B18A19DA}" name="APSummary" displayName="APSummary" ref="A1:F25" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:F25" xr:uid="{286A80E8-B09E-4703-8625-45D3B18A19DA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CB0F268B-BB26-4503-AF56-4F79BACBD852}" name="Month"/>
@@ -1429,482 +1428,482 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>111283</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>106397</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>4886</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>135401</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>124972</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>10429</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>116082</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>106931</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>9151</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>135877</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>117292</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>18585</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>126811</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>144093</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>-17282</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>102711</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>104857</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>-2146</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>106179</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>102979</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>3200</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>132499</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>135328</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>-2829</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>123032</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>98818</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>24214</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>145988</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>149122</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>-3134</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>156851</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>129078</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>27773</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>117172</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>132843</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <v>-15671</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>138163</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>148934</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <v>-10771</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>132296</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>109840</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>22456</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>122301</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>101117</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <v>21184</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16">
         <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>91236</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>102840</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <v>-11604</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>168993</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>143554</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18">
         <v>25439</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>147052</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>145483</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19">
         <v>1569</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>132694</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>112756</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20">
         <v>19938</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>98819</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>82368</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21">
         <v>16451</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>160789</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <v>131983</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22">
         <v>28806</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>119662</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <v>122903</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23">
         <v>-3241</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>81598</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <v>97922</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24">
         <v>-16324</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24">
         <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>107257</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <v>92758</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25">
         <v>14499</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25">
         <v>151</v>
       </c>
     </row>
